--- a/biology/Médecine/Marcello_Ferrada_de_Noli/Marcello_Ferrada_de_Noli.xlsx
+++ b/biology/Médecine/Marcello_Ferrada_de_Noli/Marcello_Ferrada_de_Noli.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Marcello Ferrada de Noli, né le 25 juillet 1943 est un professeur émérite d'épidémiologie et docteur en médecine psychiatrique.
 Il est connu pour ses recherches sur les comportements suicidaires associés aux traumatismes sévères
